--- a/webapp/website/ExcelFiles/KEB_0011_KEB_0012.xlsx
+++ b/webapp/website/ExcelFiles/KEB_0011_KEB_0012.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>2+0,HSB+SD</t>
+          <t>1+1,HSB</t>
         </is>
       </c>
       <c r="D3" s="2" t="n"/>
